--- a/src/test/resources/TestData/Jobs_InputData.xlsx
+++ b/src/test/resources/TestData/Jobs_InputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2889DA3C-63C2-4CE7-9F3A-BD338E89B8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB2A1A6D-FC65-4A86-A291-76182CBBA248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19296" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19416" windowHeight="13224" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JOBS_POST" sheetId="3" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="JOBS_DELETE" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J6"/>
+  <oleSize ref="A1:R11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Job_Title</t>
   </si>
@@ -47,9 +47,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>6000</t>
-  </si>
-  <si>
     <t>RemoteAccess</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Fulltime</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
     <t>StatusCode_expected</t>
   </si>
   <si>
@@ -99,6 +90,33 @@
   </si>
   <si>
     <t>infosys</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>PUT method for Jobs API with only Job title</t>
+  </si>
+  <si>
+    <t>PUT method for Jobs API with only Company Name</t>
+  </si>
+  <si>
+    <t>POST method in JOBS API with valid Input</t>
+  </si>
+  <si>
+    <t>DELETE method on JOBS API with valid Job ID to delete</t>
+  </si>
+  <si>
+    <t>DELETE method on JOBS API with invalid Job ID to delete</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>1123</t>
   </si>
 </sst>
 </file>
@@ -425,92 +443,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
         <v>200</v>
       </c>
     </row>
@@ -521,71 +548,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>1005</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
         <v>1016</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>200</v>
       </c>
     </row>
@@ -596,36 +632,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
